--- a/data/income_statement/2digits/size/24_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/24_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>24-Manufacture of basic metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>24-Manufacture of basic metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,950 +841,1075 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>43109677.2515</v>
+        <v>42953372.56008</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>56976096.96105</v>
+        <v>56731816.46871001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>82107544.83369</v>
+        <v>84101844.69905999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>85559584.07512002</v>
+        <v>89251232.20304</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>90663236.04054001</v>
+        <v>90641907.99497999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>98473007.37769</v>
+        <v>105273070.97942</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>100603424.82724</v>
+        <v>108026793.85948</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>113676337.32642</v>
+        <v>113878295.75549</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>177753978.92425</v>
+        <v>176780827.12634</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>234960200.94993</v>
+        <v>234302372.02348</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>231752260.31463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>230240374.90637</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>289280844.1</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>25584234.96225</v>
+        <v>25478444.11042</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>36179307.94527</v>
+        <v>35999993.81752001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>53239329.67957</v>
+        <v>54857850.15959</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>56710638.20973001</v>
+        <v>58806186.94955999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>61204625.99556001</v>
+        <v>61319947.55531</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>67587181.13019</v>
+        <v>73576474.25973</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>72215292.08169</v>
+        <v>77594910.22205999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>82310185.81557</v>
+        <v>82662934.66139001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>128870565.9964</v>
+        <v>128105758.46497</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>148817311.9374</v>
+        <v>148347233.71647</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>143648089.87193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>142496028.91879</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>190923190.224</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>17134878.20469</v>
+        <v>17093624.32213</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>20051225.24259</v>
+        <v>19994606.83162</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>27720772.24734</v>
+        <v>28038421.81877</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>27881256.14401</v>
+        <v>29490348.51721</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>28531479.37146</v>
+        <v>28417742.01391</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>30031780.72838</v>
+        <v>30657243.7822</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>27173676.26765</v>
+        <v>29093075.2887</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>29914906.75761</v>
+        <v>29771933.03351</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>47111613.95767999</v>
+        <v>46918310.43232001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>83618057.67694001</v>
+        <v>83438325.72685</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>85695080.19420001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>85355776.37528999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>95326740.127</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>390564.08456</v>
+        <v>381304.12753</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>745563.77319</v>
+        <v>737215.8195699999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1147442.90678</v>
+        <v>1205572.7207</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>967689.7213799999</v>
+        <v>954696.73627</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>927130.6735199998</v>
+        <v>904218.42576</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>854045.5191199998</v>
+        <v>1039352.93749</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1214456.4779</v>
+        <v>1338808.34872</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1451244.75324</v>
+        <v>1443428.06059</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1771798.97017</v>
+        <v>1756758.22905</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2524831.33559</v>
+        <v>2516812.58016</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2409090.2485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2388569.61229</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3030913.749</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>689957.5063100001</v>
+        <v>686634.39012</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>576549.0147800001</v>
+        <v>574655.7308400001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>751220.5550000001</v>
+        <v>790615.5750899999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>716788.3637100001</v>
+        <v>771059.17025</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>697451.42551</v>
+        <v>693613.42774</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1475024.38814</v>
+        <v>1528841.04099</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1102388.93565</v>
+        <v>1202046.89962</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1331447.20599</v>
+        <v>1325675.2009</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1581309.17069</v>
+        <v>1571521.13408</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3107811.74954</v>
+        <v>3093183.47699</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2511262.3192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2506401.75323</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2370003.87</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>186152.76404</v>
+        <v>184903.39471</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>123204.05274</v>
+        <v>122231.93544</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>183873.49211</v>
+        <v>188197.1642</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>169189.34648</v>
+        <v>174061.39411</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>178265.01455</v>
+        <v>175598.50722</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>823341.18554</v>
+        <v>820513.9111500001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>289519.15483</v>
+        <v>337491.9425</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>352956.89657</v>
+        <v>345909.60735</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>520743.51391</v>
+        <v>512874.0731</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>700942.7999300001</v>
+        <v>696537.78476</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>599432.8638000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>589970.5294999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>640801.985</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>247453.69922</v>
+        <v>246847.83936</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>220820.44189</v>
+        <v>220380.19091</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>307775.10885</v>
+        <v>307423.80174</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>289348.50442</v>
+        <v>294087.0506</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>269746.4685899999</v>
+        <v>269100.31918</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>314002.3458599999</v>
+        <v>366483.77081</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>452875.40417</v>
+        <v>467798.87245</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>517106.93182</v>
+        <v>514468.8603000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>538260.84799</v>
+        <v>537358.52911</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>904883.4135799999</v>
+        <v>894867.5090899999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1099572.57013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1099399.07513</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>937356.1040000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>256351.04305</v>
+        <v>254883.15605</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>232524.52015</v>
+        <v>232043.60449</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>259571.95404</v>
+        <v>294994.60915</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>258250.5128100001</v>
+        <v>302910.72554</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>249439.94237</v>
+        <v>248914.60134</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>337680.85674</v>
+        <v>341843.3590300001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>359994.37665</v>
+        <v>396756.08467</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>461383.3776</v>
+        <v>465296.73325</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>522304.8087900001</v>
+        <v>521288.53187</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1501985.53603</v>
+        <v>1501778.18314</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>812256.88527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>817032.1486000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>791845.781</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>42419719.74519001</v>
+        <v>42266738.16996</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>56399547.94627</v>
+        <v>56157160.73786999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>81356324.27869</v>
+        <v>83311229.12397</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>84842795.71141</v>
+        <v>88480173.03278999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>89965784.61503001</v>
+        <v>89948294.56723998</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>96997982.98954999</v>
+        <v>103744229.93843</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>99501035.89159</v>
+        <v>106824746.95986</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>112344890.12043</v>
+        <v>112552620.55459</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>176172669.75356</v>
+        <v>175209305.99226</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>231852389.20039</v>
+        <v>231209188.54649</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>229240997.99543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>227733973.15314</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>286910840.23</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>40617677.8854</v>
+        <v>40484675.16347</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>52102486.689</v>
+        <v>51885540.223</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>73518737.29962999</v>
+        <v>75287202.17283</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>79948899.85155</v>
+        <v>83545204.27621001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>81474517.27064</v>
+        <v>81521838.25319</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>88820810.11208999</v>
+        <v>94307908.80489999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>89004904.40449999</v>
+        <v>95624218.39125</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>97050137.25388998</v>
+        <v>97325584.50373001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>150889816.96829</v>
+        <v>150106831.74988</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>193172203.9364</v>
+        <v>192608021.95874</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>207034591.28604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>205655113.68886</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>245208149.728</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>37529886.49031</v>
+        <v>37419173.55646</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>47820580.87952001</v>
+        <v>47646266.06949999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>66614134.68795999</v>
+        <v>68313288.35064</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>72066353.11328</v>
+        <v>75628529.06728999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>74886676.52155</v>
+        <v>74974941.55551998</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>79447121.52708</v>
+        <v>84757389.46648002</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>79732498.73653999</v>
+        <v>86166930.60438001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>87397967.44753</v>
+        <v>87766676.06129001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>135134412.74342</v>
+        <v>134533774.2758</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>176265720.5442601</v>
+        <v>175782274.61268</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>188392269.33751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>187306370.05464</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>221171799.794</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2279379.16757</v>
+        <v>2263286.25362</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3301196.96419</v>
+        <v>3280873.12308</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5392964.252490001</v>
+        <v>5388966.04088</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>6214474.92475</v>
+        <v>6186674.52131</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5122611.11211</v>
+        <v>5097583.93931</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7085999.435860001</v>
+        <v>7195219.864900001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7436524.63567</v>
+        <v>7536851.02005</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7615605.869399999</v>
+        <v>7546092.680959999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>12791497.53842</v>
+        <v>12643569.81023</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13977582.06795</v>
+        <v>13925325.61074</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>15225101.48278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15035521.89252</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>19750938.627</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>487436.8694900001</v>
+        <v>485708.60451</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>417565.96682</v>
+        <v>397745.08899</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>473365.8082199999</v>
+        <v>473346.46053</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>596825.30787</v>
+        <v>596677.93757</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>702807.32378</v>
+        <v>694965.29091</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1096297.10824</v>
+        <v>1054277.41216</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1053504.04681</v>
+        <v>1073732.50354</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1088640.29075</v>
+        <v>1061759.24157</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1277308.16955</v>
+        <v>1248929.06144</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1477035.91849</v>
+        <v>1453638.85501</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1702587.81908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1616299.00723</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1845983.396</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>320975.35803</v>
+        <v>316506.74888</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>563142.87847</v>
+        <v>560655.9414299999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1038272.55096</v>
+        <v>1111601.32078</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1071246.50565</v>
+        <v>1133322.75004</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>762422.3132000001</v>
+        <v>754347.46745</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1191392.04091</v>
+        <v>1301022.06136</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>782376.9854799999</v>
+        <v>846704.26328</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>947923.6462099999</v>
+        <v>951056.5199099999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1686598.5169</v>
+        <v>1680558.60241</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1451865.4057</v>
+        <v>1446782.88031</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1714632.64667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1696922.73447</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2439427.911</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1802041.85979</v>
+        <v>1782063.00649</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4297061.25727</v>
+        <v>4271620.51487</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>7837586.979060001</v>
+        <v>8024026.95114</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4893895.859859999</v>
+        <v>4934968.75658</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8491267.344390001</v>
+        <v>8426456.31405</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8177172.87746</v>
+        <v>9436321.13353</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>10496131.48709</v>
+        <v>11200528.56861</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>15294752.86654</v>
+        <v>15227036.05086</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>25282852.78526999</v>
+        <v>25102474.24238</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>38680185.26399</v>
+        <v>38601166.58775</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>22206406.70939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22078859.46428</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>41702690.502</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2021849.85697</v>
+        <v>1996391.607</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2375566.93199</v>
+        <v>2336990.7296</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2776721.40105</v>
+        <v>2755756.32954</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3199525.49563</v>
+        <v>3202060.57585</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3501231.36017</v>
+        <v>3464385.93913</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3928296.507</v>
+        <v>4036128.23399</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4322175.73915</v>
+        <v>4588952.28772</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5436745.60053</v>
+        <v>5363050.03141</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7158088.85928</v>
+        <v>7040096.82469</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8149749.177920001</v>
+        <v>8079776.960210001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>9172812.057300001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9063897.28136</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10401467.133</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>14313.78327</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>23195.68794</v>
+        <v>23104.39832</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>24982.54434</v>
+        <v>15414.10968</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>25325.3152</v>
+        <v>15907.58208</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>19127.46626</v>
+        <v>18955.55422</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>21054.72338</v>
+        <v>21868.46518</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14026.77826</v>
+        <v>21459.15185</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>32847.03619</v>
+        <v>32808.1499</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>31953.54881</v>
+        <v>31300.37914</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>41972.59375</v>
+        <v>40658.38913</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>64269.1096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>64244.36446</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>72647.62699999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1173958.28894</v>
+        <v>1170282.03808</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1326719.23132</v>
+        <v>1321187.59567</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1539717.51666</v>
+        <v>1538776.99104</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1818606.84218</v>
+        <v>1835219.17812</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2001633.01485</v>
+        <v>1992499.4662</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2236399.83726</v>
+        <v>2295180.30799</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2520216.903710001</v>
+        <v>2688057.31751</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3202429.08304</v>
+        <v>3195635.85992</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3852929.369359999</v>
+        <v>3833034.74469</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4890525.03266</v>
+        <v>4878920.71257</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5554791.95287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5525595.01141</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6396587.948</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>833577.78476</v>
+        <v>811795.78565</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1025652.01273</v>
+        <v>992698.7356099999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1212021.34005</v>
+        <v>1201565.22882</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1355593.33825</v>
+        <v>1350933.81565</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1480470.87906</v>
+        <v>1452930.91871</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1670841.94636</v>
+        <v>1719079.46082</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1787932.05718</v>
+        <v>1879435.81836</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2201469.4813</v>
+        <v>2134606.02159</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3273205.94111</v>
+        <v>3175761.70086</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3217251.55151</v>
+        <v>3160197.85851</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3553750.99483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3474057.90549</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3932231.558</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-219807.9971799999</v>
+        <v>-214328.60051</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1921494.32528</v>
+        <v>1934629.78527</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5060865.578009999</v>
+        <v>5268270.6216</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1694370.36423</v>
+        <v>1732908.18073</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4990035.98422</v>
+        <v>4962070.37492</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4248876.37046</v>
+        <v>5400192.89954</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6173955.74794</v>
+        <v>6611576.280889999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9858007.266009999</v>
+        <v>9863986.019450001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>18124763.92599</v>
+        <v>18062377.41769</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>30530436.08607</v>
+        <v>30521389.62754</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13033594.65209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13014962.18292</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>31301223.369</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3837069.14401</v>
+        <v>3777507.52063</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4227068.15077</v>
+        <v>4144948.0994</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5529304.18455</v>
+        <v>5702379.829530001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5289843.29534</v>
+        <v>5431782.35505</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>6454738.13219</v>
+        <v>6391680.23014</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10054478.03438</v>
+        <v>11266476.31264</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>14952682.51702</v>
+        <v>16483721.707</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18929718.84816</v>
+        <v>18744092.85785</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>30960025.08167</v>
+        <v>30745385.64804</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>85904204.17782001</v>
+        <v>85389529.04140002</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>54102108.57584999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>53877406.70160001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>76776329.52</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>178620.45104</v>
+        <v>176342.44154</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>164708.05751</v>
+        <v>155042.94222</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>32636.3808</v>
+        <v>25526.20807</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>181776.22149</v>
+        <v>181753.14442</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>34929.65235000001</v>
+        <v>34900.46646</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>689793.1005100001</v>
+        <v>682409.19401</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>56906.51264</v>
+        <v>52235.48972</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>124179.70293</v>
+        <v>110276.09917</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>167041.8529</v>
+        <v>140754.77849</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>345613.03163</v>
+        <v>313446.41785</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>456004.0008</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>234482.657</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>72029.57653000001</v>
+        <v>63993.65592</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>7284.003580000001</v>
+        <v>5776.34386</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>158152.88543</v>
+        <v>156105.70445</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>226600.95394</v>
+        <v>220700.87224</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>170989.97258</v>
+        <v>169975.03257</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1043060.3919</v>
+        <v>1036132.22089</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>43354.5098</v>
+        <v>41062.67767</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>567296.42593</v>
+        <v>565860.11421</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1957008.58115</v>
+        <v>1955214.06594</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2572064.3248</v>
+        <v>2570267.43217</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>4331205.86754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4317267.06602</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>895923.411</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>295303.26483</v>
+        <v>293051.81715</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>319807.4461299999</v>
+        <v>313012.47788</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>462228.5513399999</v>
+        <v>461964.8925899999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>496936.98325</v>
+        <v>499782.40409</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>421260.9018399999</v>
+        <v>426434.29351</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>451943.1625</v>
+        <v>500355.51094</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>525072.1950600001</v>
+        <v>603910.7503899999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>613800.1524200001</v>
+        <v>605501.53853</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1006348.88043</v>
+        <v>988710.8470099999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2106061.51495</v>
+        <v>2078554.33506</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1811842.17153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1791819.3142</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1929262.142</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5927.901529999999</v>
@@ -1892,154 +1918,174 @@
         <v>36217.47312</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>46330.59825</v>
+        <v>46660.2676</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>13584.57672</v>
+        <v>13815.85842</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>16216.38453</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>10072.79266</v>
+        <v>10055.01549</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>16791.03782</v>
+        <v>16795.79817</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>12350.60803</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>60209.0365</v>
+        <v>60206.9675</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>23110.473</v>
+        <v>23108.044</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>24586.56034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>24357.79621</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>29548.798</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>86116.01798</v>
+        <v>86116.01797999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>50885.03479</v>
+        <v>50837.30891</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>30232.13923</v>
+        <v>29929.35506</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>29974.34467</v>
+        <v>30675.68389</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>27135.59922</v>
+        <v>27088.60494</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>32163.89768</v>
+        <v>32023.65935</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>65445.32330999999</v>
+        <v>47878.28371000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>110702.121</v>
+        <v>88736.27981000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>56434.61268000001</v>
+        <v>37801.79484</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>49880.603</v>
+        <v>49877.353</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>103355.92975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>99105.87707999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>79675.14999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>35221.96318999999</v>
+        <v>35202.54688</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>29118.74459</v>
+        <v>29102.94806</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>60544.9523</v>
+        <v>60149.63195999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>46653.80691</v>
+        <v>45701.72941</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>13042.05853</v>
+        <v>13031.31323</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>46176.92246</v>
+        <v>46084.52375</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>32842.81676</v>
+        <v>32462.50274</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>137058.52951</v>
+        <v>97638.83181999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>240315.51937</v>
+        <v>237452.52773</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>175185.15264</v>
+        <v>175175.98216</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>181344.14103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>181340.44281</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>181495.89</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2693531.91299</v>
+        <v>2654611.00055</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3273198.06087</v>
+        <v>3218885.88112</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4502203.70198</v>
+        <v>4683332.183150001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3954536.06305</v>
+        <v>4099999.9326</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5351963.327860001</v>
+        <v>5297976.28365</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7329715.188680001</v>
+        <v>8481310.677279999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13762073.17109</v>
+        <v>15232963.64038</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16779366.913</v>
+        <v>16688352.98721</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>26836922.97628</v>
+        <v>26702973.13432</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>79293575.57191001</v>
+        <v>78855964.23073</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>45598578.06125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>45421627.74646</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>71608682.241</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>6029.824549999999</v>
@@ -2048,25 +2094,25 @@
         <v>2296.99835</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>4604.81834</v>
+        <v>4615.50731</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>5757.823530000001</v>
+        <v>5789.74615</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>16974.84399</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>35693.32494</v>
+        <v>35234.40184000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>25891.33703</v>
+        <v>26203.42613</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>44482.01634</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>44690.4178</v>
+        <v>44689.9101</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>327014.54089</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>266707.90539</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>82094.19899999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>91394.19605000001</v>
@@ -2099,7 +2150,7 @@
         <v>0.12559</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>31.884</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>372894.03532</v>
+        <v>364838.11848</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>343552.33183</v>
+        <v>333775.72588</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>232370.15688</v>
+        <v>234096.07934</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>329895.79125</v>
+        <v>329436.2533</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>402225.39129</v>
+        <v>389083.00726</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>415859.12746</v>
+        <v>442870.9835</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>424273.72951</v>
+        <v>430209.13809</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>540482.379</v>
+        <v>530894.3827300001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>591053.20456</v>
+        <v>577581.62211</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>900397.2872899999</v>
+        <v>884819.02783</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1328483.93822</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1319176.55263</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1735165.032</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2301835.07517</v>
+        <v>2267658.73848</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2796480.37634</v>
+        <v>2739091.40881</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4156824.006560001</v>
+        <v>4484903.394610001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2878644.37564</v>
+        <v>2956441.67554</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6148930.41119</v>
+        <v>6062795.60303</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6623873.25159</v>
+        <v>7461052.241760001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>13937286.71814</v>
+        <v>14641857.73043</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15688933.08582</v>
+        <v>15560245.73199</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>25521675.92795</v>
+        <v>25381575.53409</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>68753726.97695999</v>
+        <v>68181962.04162</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>42221822.35635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>42002439.27401</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>66511487.696</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>23793.79831</v>
+        <v>23793.07153</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>38688.48993</v>
+        <v>38657.80303</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>22972.27801</v>
+        <v>22959.50682</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>22601.9951</v>
+        <v>22503.7006</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>17834.04177</v>
+        <v>17832.10411</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12554.37844</v>
+        <v>20821.59408</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>20210.37985</v>
+        <v>20350.47213</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>25026.3055</v>
+        <v>24696.159</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>35431.6819</v>
+        <v>31798.38847</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>88359.18699000002</v>
+        <v>88359.18698999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>173545.4182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>173567.13903</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>88431.927</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>91201.37454999998</v>
+        <v>91201.37454999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>50780.01361999999</v>
+        <v>50609.77397</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>58064.34224</v>
+        <v>59922.80944</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>79495.55156000001</v>
+        <v>84263.17319999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>138677.50948</v>
+        <v>128340.65774</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>156695.25382</v>
+        <v>157477.03673</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>290978.92022</v>
+        <v>304633.81572</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>224817.28159</v>
+        <v>223164.87427</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>135336.00973</v>
+        <v>133967.3151</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>338114.00311</v>
+        <v>290940.20016</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>252279.09354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>249198.76192</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>218844.042</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>84173.27425</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>15192.2258</v>
+        <v>15163.2337</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>36927.51755999999</v>
+        <v>36927.51756</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>24556.00115</v>
+        <v>24558.076</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>40908.83481</v>
+        <v>43282.03481</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>23358.38477</v>
+        <v>24493.79548</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>91191.32497</v>
+        <v>83239.81714</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>71098.03351000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>134605.80936</v>
+        <v>133486.82782</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>130938.46651</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>98526.53538000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>98490.23791</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>119632.516</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1922545.42819</v>
+        <v>1890979.75044</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2465347.41164</v>
+        <v>2410621.27171</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3849107.26148</v>
+        <v>4176957.4763</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2561657.48852</v>
+        <v>2635734.61758</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5535944.47308</v>
+        <v>5471514.44828</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6204365.002739999</v>
+        <v>6997663.0527</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>13298730.18288</v>
+        <v>14000613.62396</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14867289.74951</v>
+        <v>14741548.10014</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>24720981.25653</v>
+        <v>24588425.15334</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>66605178.43636999</v>
+        <v>66081670.55557</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>40197137.25778</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>39986880.78311999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>65219202.545</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4569.578379999999</v>
+        <v>4569.57838</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>3758.38949</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5371.97175</v>
+        <v>5405.4475</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5088.44612</v>
+        <v>5092.027700000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>25128.37</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>37681.07392</v>
+        <v>37256.68737</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>30479.03099</v>
+        <v>33410.53163</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>45910.556</v>
+        <v>45910.27409000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>56251.99442</v>
+        <v>56251.76863</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>335605.5075299999</v>
+        <v>335605.50753</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>258712.46309</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>92148.272</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>1835.18077</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>175551.62149</v>
+        <v>172941.68933</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>222713.84586</v>
+        <v>220280.93691</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>184380.63552</v>
+        <v>182730.63699</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>185244.89319</v>
+        <v>184290.08046</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>387020.66407</v>
+        <v>373281.47011</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>189216.69137</v>
+        <v>223337.60887</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>205696.87923</v>
+        <v>199609.46985</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>454791.15971</v>
+        <v>453828.29098</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>438309.17927</v>
+        <v>436886.08399</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1255531.37645</v>
+        <v>1254448.12486</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1239786.40759</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1233754.70817</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>773228.394</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2024835.91063</v>
+        <v>2007480.10196</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2216530.0554</v>
+        <v>2166295.24445</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4383750.93654</v>
+        <v>4326004.121440001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2315534.72452</v>
+        <v>2389793.06336</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4595996.93304</v>
+        <v>4619323.94181</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4123957.67116</v>
+        <v>4517301.77908</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5876765.11549</v>
+        <v>7673341.107040001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7352158.78747</v>
+        <v>7344541.628980001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8125268.430070001</v>
+        <v>8022444.2655</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>26817167.71748</v>
+        <v>26740256.66613</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>14261598.18087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>14140404.20166</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>21640114.209</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1375434.19471</v>
+        <v>1360305.05802</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1229137.19543</v>
+        <v>1193779.34306</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2311330.702109999</v>
+        <v>2298657.3845</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1475841.97028</v>
+        <v>1554760.52888</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3050159.22963</v>
+        <v>3076753.67303</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2946855.07093</v>
+        <v>3064638.63244</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4091012.432030001</v>
+        <v>5254445.46934</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4934612.957359999</v>
+        <v>4897721.74955</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6065299.997789999</v>
+        <v>5967629.683530001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17256562.74728</v>
+        <v>17194229.30415</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>10237763.09807</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10174799.69866</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13859338.177</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>649401.71592</v>
+        <v>647175.0439399999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>987392.8599699999</v>
+        <v>972515.90139</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2072420.23443</v>
+        <v>2027346.73694</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>839692.7542400002</v>
+        <v>835032.53448</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1545837.70341</v>
+        <v>1542570.26878</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1177102.60023</v>
+        <v>1452663.14664</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1785752.68346</v>
+        <v>2418895.6377</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2417545.83011</v>
+        <v>2446819.87943</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2059968.43228</v>
+        <v>2054814.58197</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>9560604.970199998</v>
+        <v>9546027.361979999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4023835.0828</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3965604.503</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7780776.032</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-709409.8389700003</v>
+        <v>-711959.9203200002</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1135552.04431</v>
+        <v>1174191.23141</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2049594.81946</v>
+        <v>2159742.93508</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1790034.55941</v>
+        <v>1818455.79688</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>699846.7721800001</v>
+        <v>671631.06022</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3555523.48209</v>
+        <v>4688315.19134</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1312586.43133</v>
+        <v>780099.1504200001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5746634.24088</v>
+        <v>5703291.51633</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>15437844.64964</v>
+        <v>15403743.26614</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>20863745.56945</v>
+        <v>20988699.96119</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>10652282.69072</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10749525.40885</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>19925950.984</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>219392.14231</v>
+        <v>197660.34278</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>208085.43405</v>
+        <v>194377.47932</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>252517.40487</v>
+        <v>249401.81486</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>282663.74771</v>
+        <v>270081.39168</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>332928.88863</v>
+        <v>349576.77134</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>484753.55757</v>
+        <v>410757.61281</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>447200.80558</v>
+        <v>489000.11836</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>563986.4026799999</v>
+        <v>419167.78342</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1056393.50556</v>
+        <v>1020867.96763</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>544340.23739</v>
+        <v>540527.68697</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>787614.11346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>772827.3656199999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>829573.907</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>10827.50733</v>
+        <v>10815.97987</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>4854.401879999999</v>
+        <v>4850.028389999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>14252.12931</v>
+        <v>14194.52305</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>15985.59942</v>
+        <v>8107.905009999999</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>29050.15971</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>22290.23629</v>
+        <v>22189.84966</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>35235.35915</v>
+        <v>38509.56094</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>14131.60639</v>
+        <v>14132.92773</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>9256.736360000001</v>
+        <v>7001.102690000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>16216.79579</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>20932.6672</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>20680.3468</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>103192.28</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>208564.63498</v>
+        <v>186844.36291</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>203231.03217</v>
+        <v>189527.45093</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>238265.27556</v>
+        <v>235207.29181</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>266678.14829</v>
+        <v>261973.48667</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>303878.72892</v>
+        <v>320526.61163</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>462463.3212800001</v>
+        <v>388567.76315</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>411965.44643</v>
+        <v>450490.55742</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>549854.79629</v>
+        <v>405034.8556900001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1047136.7692</v>
+        <v>1013866.86494</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>528123.4416</v>
+        <v>524310.89118</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>766681.44626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>752147.0188199999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>726381.627</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>388488.39847</v>
+        <v>370419.17188</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>312449.58219</v>
+        <v>281091.64768</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>887299.00877</v>
+        <v>514876.83938</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>382303.35392</v>
+        <v>372750.99624</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>422124.30294</v>
+        <v>416697.73626</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>435344.62408</v>
+        <v>417787.97638</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1002540.53807</v>
+        <v>990562.13827</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>684212.9569099999</v>
+        <v>629323.97809</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>576528.1267199999</v>
+        <v>530349.46909</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>695266.3470999999</v>
+        <v>645425.19378</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1024488.85506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>938780.3661700001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>841837.563</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>219184.42531</v>
+        <v>212839.28692</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>169935.50958</v>
+        <v>157921.48426</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>214263.79636</v>
+        <v>212312.93201</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>151668.18329</v>
+        <v>152285.2162</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>216281.04023</v>
+        <v>214348.54774</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>172194.07048</v>
+        <v>165348.29453</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>266963.98202</v>
+        <v>268113.64368</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>246003.36168</v>
+        <v>234151.52303</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>320274.1747</v>
+        <v>287265.80933</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>264765.05981</v>
+        <v>219367.35928</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>431856.66742</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>399773.53485</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>479180.349</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>28906.33474</v>
+        <v>28758.61976</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>30124.9618</v>
+        <v>19582.66886</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>418549.92361</v>
+        <v>50901.5919</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>27748.99489</v>
+        <v>26870.15039</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>69105.18144999999</v>
+        <v>66170.80960000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>35542.12242</v>
+        <v>29830.99378</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>114482.60769</v>
+        <v>118434.43511</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>43893.38148</v>
+        <v>43691.93293</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>53918.52424</v>
+        <v>51803.62666</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>70210.58048999999</v>
+        <v>69909.09312000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>156415.8002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>155269.08873</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>98893.572</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>140397.63842</v>
+        <v>128821.2652</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>112389.11081</v>
+        <v>103587.49456</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>254485.2888</v>
+        <v>251662.31547</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>202886.17574</v>
+        <v>193595.62965</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>136738.08126</v>
+        <v>136178.37892</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>227608.43118</v>
+        <v>222608.68807</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>621093.9483599999</v>
+        <v>604014.0594799999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>394316.2137500001</v>
+        <v>351480.52213</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>202335.42778</v>
+        <v>191280.0331</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>360290.7068</v>
+        <v>356148.74138</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>436216.38744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>383737.74259</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>263763.642</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-878506.0951299999</v>
+        <v>-884718.74942</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1031187.89617</v>
+        <v>1087477.06305</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1414813.21556</v>
+        <v>1894267.91056</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1690394.9532</v>
+        <v>1715786.19232</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>610651.3578699999</v>
+        <v>604510.0952999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3604932.41558</v>
+        <v>4681284.827769999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>757246.6988400001</v>
+        <v>278537.13051</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5626407.68665</v>
+        <v>5493135.32166</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>15917710.02848</v>
+        <v>15894261.76468</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>20712819.45974</v>
+        <v>20883802.45438</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10415407.94912</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>10583572.4083</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>19913687.328</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>137563.99454</v>
+        <v>135130.15907</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>169401.90698</v>
+        <v>166760.50774</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>482848.8260199999</v>
+        <v>486378.06849</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>363569.92667</v>
+        <v>369440.38901</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>417929.99186</v>
+        <v>416635.87968</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>499537.5046</v>
+        <v>571085.2581100001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>547613.73564</v>
+        <v>566635.3771300002</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>776827.8146199998</v>
+        <v>769287.2560800001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1729580.36331</v>
+        <v>1715384.52021</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3773106.89211</v>
+        <v>3768003.20852</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2084468.97946</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2076430.00841</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3683998.265</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1016070.08967</v>
+        <v>-1019848.90849</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>861785.98919</v>
+        <v>920716.55531</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>931964.38954</v>
+        <v>1407889.84207</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1326825.02653</v>
+        <v>1346345.80331</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>192721.36601</v>
+        <v>187874.21562</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3105394.91098</v>
+        <v>4110199.56966</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>209632.9631999999</v>
+        <v>-288098.2466200001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4849579.872030001</v>
+        <v>4723848.06558</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>14188129.66517</v>
+        <v>14178877.24447</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>16939712.56763</v>
+        <v>17115799.24586</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>8330938.96966</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8507142.39989</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>16229689.063</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>154</v>
+      </c>
+      <c r="D59" s="35" t="n">
         <v>177</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>203</v>
-      </c>
       <c r="E59" s="35" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>180</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>